--- a/database/sidis/expdata/9001.xlsx
+++ b/database/sidis/expdata/9001.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+  <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO/fitpack/database/sidis/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>Ebeam</t>
   </si>
@@ -66,32 +79,22 @@
   <si>
     <t>clas</t>
   </si>
+  <si>
+    <t>dependence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -111,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -194,69 +197,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -382,7 +451,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -391,7 +460,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,7 +469,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -474,7 +543,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -482,7 +551,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -501,7 +570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -531,7 +600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -557,7 +626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,7 +782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -739,7 +808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,9 +821,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -769,7 +844,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -777,7 +852,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -796,7 +871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +1001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +1027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,9 +1118,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1059,7 +1140,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1078,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,181 +1410,185 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="4">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="5">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="5">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="5">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="5">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>5.7</v>
       </c>
       <c r="B2" s="6">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="C2" s="6">
         <v>1.766</v>
       </c>
       <c r="D2" s="6">
-        <v>0.513</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="E2" s="6">
-        <f>C2/(2*0.938*A2*B2)</f>
-        <v>0.5919415239537886</v>
+        <f t="shared" ref="E2:E9" si="0">C2/(2*0.938*A2*B2)</f>
+        <v>0.59194152395378863</v>
       </c>
       <c r="F2" s="7">
-        <v>0.062</v>
-      </c>
-      <c r="G2" t="s" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="7">
         <v>0.3128358</v>
       </c>
       <c r="I2" s="7">
-        <v>0.08578109</v>
+        <v>8.5781090000000004E-2</v>
       </c>
       <c r="J2" s="7">
-        <v>0.026</v>
-      </c>
-      <c r="K2" t="s" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s" s="2">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O2" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>5.7</v>
       </c>
       <c r="B3" s="6">
-        <v>0.273</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C3" s="6">
         <v>1.758</v>
       </c>
       <c r="D3" s="6">
-        <v>0.509</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E3" s="6">
-        <f>C3/(2*0.938*A3*B3)</f>
-        <v>0.6022107918640294</v>
+        <f t="shared" si="0"/>
+        <v>0.60221079186402937</v>
       </c>
       <c r="F3" s="6">
         <v>0.188</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="6">
-        <v>0.1802249</v>
+        <v>0.18022489999999999</v>
       </c>
       <c r="I3" s="6">
-        <v>0.04669233</v>
+        <v>4.6692329999999997E-2</v>
       </c>
       <c r="J3" s="6">
         <v>0.02</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s" s="2">
+      <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O3" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>5.7</v>
       </c>
       <c r="B4" s="6">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="C4" s="6">
         <v>1.766</v>
@@ -1512,128 +1597,137 @@
         <v>0.502</v>
       </c>
       <c r="E4" s="6">
-        <f>C4/(2*0.938*A4*B4)</f>
-        <v>0.6208709969289737</v>
+        <f t="shared" si="0"/>
+        <v>0.62087099692897374</v>
       </c>
       <c r="F4" s="6">
         <v>0.312</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="6">
-        <v>0.2038352</v>
+        <v>0.20383519999999999</v>
       </c>
       <c r="I4" s="6">
-        <v>0.04085836</v>
+        <v>4.0858360000000003E-2</v>
       </c>
       <c r="J4" s="6">
         <v>0.02</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4" t="s" s="2">
+      <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O4" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>5.7</v>
       </c>
       <c r="B5" s="6">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>1.747</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="D5" s="6">
         <v>0.498</v>
       </c>
       <c r="E5" s="6">
-        <f>C5/(2*0.938*A5*B5)</f>
-        <v>0.6381830275315153</v>
+        <f t="shared" si="0"/>
+        <v>0.63818302753151535</v>
       </c>
       <c r="F5" s="6">
         <v>0.438</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="6">
-        <v>0.240405</v>
+        <v>0.24040500000000001</v>
       </c>
       <c r="I5" s="6">
-        <v>0.03619094</v>
+        <v>3.6190939999999998E-2</v>
       </c>
       <c r="J5" s="6">
         <v>0.02</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O5" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5.7</v>
       </c>
       <c r="B6" s="6">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="C6" s="6">
-        <v>1.755</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="D6" s="6">
         <v>0.496</v>
       </c>
       <c r="E6" s="6">
-        <f>C6/(2*0.938*A6*B6)</f>
-        <v>0.6810082740759126</v>
+        <f t="shared" si="0"/>
+        <v>0.68100827407591258</v>
       </c>
       <c r="F6" s="6">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="G6" t="s" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="6">
         <v>0.2584593</v>
       </c>
       <c r="I6" s="6">
-        <v>0.03745757</v>
+        <v>3.7457570000000003E-2</v>
       </c>
       <c r="J6" s="6">
-        <v>0.022</v>
-      </c>
-      <c r="K6" t="s" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="L6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="N6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O6" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5.7</v>
       </c>
@@ -1641,134 +1735,143 @@
         <v>0.22</v>
       </c>
       <c r="C7" s="6">
-        <v>1.685</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="D7" s="6">
-        <v>0.493</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="E7" s="6">
-        <f>C7/(2*0.938*A7*B7)</f>
-        <v>0.7162580807514037</v>
+        <f t="shared" si="0"/>
+        <v>0.71625808075140374</v>
       </c>
       <c r="F7" s="6">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="G7" t="s" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="6">
         <v>0.2382493</v>
       </c>
       <c r="I7" s="6">
-        <v>0.04933397</v>
+        <v>4.9333969999999998E-2</v>
       </c>
       <c r="J7" s="6">
-        <v>0.025</v>
-      </c>
-      <c r="K7" t="s" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="L7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="M7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="N7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O7" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5.7</v>
       </c>
       <c r="B8" s="6">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="C8" s="6">
         <v>1.752</v>
       </c>
       <c r="D8" s="6">
-        <v>0.494</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="E8" s="6">
-        <f>C8/(2*0.938*A8*B8)</f>
-        <v>0.7953516598335427</v>
+        <f t="shared" si="0"/>
+        <v>0.79535165983354272</v>
       </c>
       <c r="F8" s="6">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="G8" t="s" s="2">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="6">
-        <v>0.05281279</v>
+        <v>5.2812789999999998E-2</v>
       </c>
       <c r="I8" s="6">
-        <v>0.07150518</v>
+        <v>7.1505180000000002E-2</v>
       </c>
       <c r="J8" s="6">
-        <v>0.033</v>
-      </c>
-      <c r="K8" t="s" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="N8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O8" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5.7</v>
       </c>
       <c r="B9" s="6">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C9" s="6">
-        <v>1.559</v>
+        <v>1.5589999999999999</v>
       </c>
       <c r="D9" s="6">
-        <v>0.506</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="E9" s="6">
-        <f>C9/(2*0.938*A9*B9)</f>
-        <v>0.8331062197070502</v>
+        <f t="shared" si="0"/>
+        <v>0.83310621970705023</v>
       </c>
       <c r="F9" s="6">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="G9" t="s" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="6">
-        <v>-0.002014692</v>
+        <v>-2.0146919999999998E-3</v>
       </c>
       <c r="I9" s="6">
         <v>0.1242424</v>
       </c>
       <c r="J9" s="6">
-        <v>0.044</v>
-      </c>
-      <c r="K9" t="s" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="L9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="N9" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O9" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1786,7 +1889,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
